--- a/Aero design/Flight sim/hover stage sim - RK4 method/lookupTableCl.xlsx
+++ b/Aero design/Flight sim/hover stage sim - RK4 method/lookupTableCl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\Documents\Crash-Sat\Crash-Sat\Aero design\Flight sim\hover stage sim - RK4 method\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91831B3-458A-4F2A-8787-F249E6F1775B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D853CBF8-42AE-4A6C-8C05-CD89D9F2671C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5016" yWindow="2352" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -351,7 +351,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="J1" sqref="J1:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -384,10 +384,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>-0.6</v>
+        <v>-0.15</v>
       </c>
       <c r="B2">
-        <v>-0.6</v>
+        <v>-0.39600000000000002</v>
       </c>
       <c r="C2">
         <v>-0.6</v>
@@ -410,10 +410,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="B3">
-        <v>-0.4</v>
+        <v>-0.26400000000000001</v>
       </c>
       <c r="C3">
         <v>-0.4</v>
@@ -436,10 +436,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>-0.2</v>
+        <v>-0.05</v>
       </c>
       <c r="B4">
-        <v>-0.2</v>
+        <v>-0.13200000000000001</v>
       </c>
       <c r="C4">
         <v>-0.2</v>
@@ -488,10 +488,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="B6">
-        <v>0.2</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="C6">
         <v>0.2</v>
@@ -514,10 +514,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="B7">
-        <v>0.4</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="C7">
         <v>0.4</v>
@@ -540,10 +540,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0.6</v>
+        <v>0.15</v>
       </c>
       <c r="B8">
-        <v>0.6</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="C8">
         <v>0.6</v>
@@ -566,10 +566,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="C9">
         <v>0.8</v>
@@ -592,10 +592,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -618,10 +618,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="B11">
-        <v>1.2</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="C11">
         <v>1.2</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="B12">
-        <v>1.2</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="C12">
         <v>1.2</v>
@@ -670,10 +670,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="B13">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="C13">
         <v>0.5</v>

--- a/Aero design/Flight sim/hover stage sim - RK4 method/lookupTableCl.xlsx
+++ b/Aero design/Flight sim/hover stage sim - RK4 method/lookupTableCl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\Documents\Crash-Sat\Crash-Sat\Aero design\Flight sim\hover stage sim - RK4 method\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D853CBF8-42AE-4A6C-8C05-CD89D9F2671C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECB3EE4-B80D-4FF8-A203-BFA9E5473204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -351,7 +351,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K14"/>
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -384,28 +384,28 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.39600000000000002</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -670,28 +670,28 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">

--- a/Aero design/Flight sim/hover stage sim - RK4 method/lookupTableCl.xlsx
+++ b/Aero design/Flight sim/hover stage sim - RK4 method/lookupTableCl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\Documents\Crash-Sat\Crash-Sat\Aero design\Flight sim\hover stage sim - RK4 method\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECB3EE4-B80D-4FF8-A203-BFA9E5473204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6F0B28-1715-4850-B824-97A1535CB563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -348,19 +348,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1">
+        <f>0.25*B1</f>
         <v>0</v>
       </c>
       <c r="B1">
+        <f>0.66*C1</f>
         <v>0</v>
       </c>
       <c r="C1">
@@ -384,9 +386,11 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
+        <f t="shared" ref="A2:A31" si="0">0.25*B2</f>
         <v>0</v>
       </c>
       <c r="B2">
+        <f t="shared" ref="B2:B31" si="1">0.66*C2</f>
         <v>0</v>
       </c>
       <c r="C2">
@@ -410,35 +414,39 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
+        <f t="shared" si="0"/>
+        <v>-1.6500000000000001E-2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="1"/>
+        <v>-6.6000000000000003E-2</v>
+      </c>
+      <c r="C3">
         <v>-0.1</v>
       </c>
-      <c r="B3">
-        <v>-0.26400000000000001</v>
-      </c>
-      <c r="C3">
-        <v>-0.4</v>
-      </c>
       <c r="D3">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="E3">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="F3">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="G3">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="H3">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>-0.05</v>
+        <f t="shared" si="0"/>
+        <v>-3.3000000000000002E-2</v>
       </c>
       <c r="B4">
+        <f t="shared" si="1"/>
         <v>-0.13200000000000001</v>
       </c>
       <c r="C4">
@@ -462,261 +470,757 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-4.9500000000000002E-2</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>-0.19800000000000001</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0.05</v>
+        <f t="shared" si="0"/>
+        <v>-6.6000000000000003E-2</v>
       </c>
       <c r="B6">
-        <v>0.13200000000000001</v>
+        <f t="shared" si="1"/>
+        <v>-0.26400000000000001</v>
       </c>
       <c r="C6">
-        <v>0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="D6">
-        <v>0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="E6">
-        <v>0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="F6">
-        <v>0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="G6">
-        <v>0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="H6">
-        <v>0.2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0.1</v>
+        <f t="shared" si="0"/>
+        <v>-8.2500000000000004E-2</v>
       </c>
       <c r="B7">
-        <v>0.26400000000000001</v>
+        <f t="shared" si="1"/>
+        <v>-0.33</v>
       </c>
       <c r="C7">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="D7">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="E7">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="F7">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="G7">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="H7">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0.15</v>
+        <f t="shared" si="0"/>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="B8">
-        <v>0.39600000000000002</v>
+        <f t="shared" si="1"/>
+        <v>-0.39600000000000002</v>
       </c>
       <c r="C8">
-        <v>0.6</v>
+        <v>-0.6</v>
       </c>
       <c r="D8">
-        <v>0.6</v>
+        <v>-0.6</v>
       </c>
       <c r="E8">
-        <v>0.6</v>
+        <v>-0.6</v>
       </c>
       <c r="F8">
-        <v>0.6</v>
+        <v>-0.6</v>
       </c>
       <c r="G8">
-        <v>0.6</v>
+        <v>-0.6</v>
       </c>
       <c r="H8">
-        <v>0.6</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>-0.19800000000000001</v>
       </c>
       <c r="B9">
-        <v>0.52800000000000002</v>
+        <f t="shared" si="1"/>
+        <v>-0.79200000000000004</v>
       </c>
       <c r="C9">
-        <v>0.8</v>
+        <v>-1.2</v>
       </c>
       <c r="D9">
-        <v>0.8</v>
+        <v>-1.2</v>
       </c>
       <c r="E9">
-        <v>0.8</v>
+        <v>-1.2</v>
       </c>
       <c r="F9">
-        <v>0.8</v>
+        <v>-1.2</v>
       </c>
       <c r="G9">
-        <v>0.8</v>
+        <v>-1.2</v>
       </c>
       <c r="H9">
-        <v>0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0.25</v>
+        <f t="shared" si="0"/>
+        <v>-0.19800000000000001</v>
       </c>
       <c r="B10">
-        <v>0.66</v>
+        <f t="shared" si="1"/>
+        <v>-0.79200000000000004</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>-1.2</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>-1.2</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>-1.2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>-1.2</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>-1.2</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0.3</v>
+        <f t="shared" si="0"/>
+        <v>-0.16500000000000001</v>
       </c>
       <c r="B11">
-        <v>0.79200000000000004</v>
+        <f t="shared" si="1"/>
+        <v>-0.66</v>
       </c>
       <c r="C11">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="D11">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="E11">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="F11">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="G11">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="H11">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>0.3</v>
+        <f t="shared" si="0"/>
+        <v>-0.13200000000000001</v>
       </c>
       <c r="B12">
-        <v>0.79200000000000004</v>
+        <f t="shared" si="1"/>
+        <v>-0.52800000000000002</v>
       </c>
       <c r="C12">
-        <v>1.2</v>
+        <v>-0.8</v>
       </c>
       <c r="D12">
-        <v>1.2</v>
+        <v>-0.8</v>
       </c>
       <c r="E12">
-        <v>1.2</v>
+        <v>-0.8</v>
       </c>
       <c r="F12">
-        <v>1.2</v>
+        <v>-0.8</v>
       </c>
       <c r="G12">
-        <v>1.2</v>
+        <v>-0.8</v>
       </c>
       <c r="H12">
-        <v>1.2</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>-0.39600000000000002</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-6.6000000000000003E-2</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>-0.26400000000000001</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="H14">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>-0.13200000000000001</v>
+      </c>
+      <c r="C15">
+        <v>-0.2</v>
+      </c>
+      <c r="D15">
+        <v>-0.2</v>
+      </c>
+      <c r="E15">
+        <v>-0.2</v>
+      </c>
+      <c r="F15">
+        <v>-0.2</v>
+      </c>
+      <c r="G15">
+        <v>-0.2</v>
+      </c>
+      <c r="H15">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="C17">
+        <v>0.2</v>
+      </c>
+      <c r="D17">
+        <v>0.2</v>
+      </c>
+      <c r="E17">
+        <v>0.2</v>
+      </c>
+      <c r="F17">
+        <v>0.2</v>
+      </c>
+      <c r="G17">
+        <v>0.2</v>
+      </c>
+      <c r="H17">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="C18">
+        <v>0.4</v>
+      </c>
+      <c r="D18">
+        <v>0.4</v>
+      </c>
+      <c r="E18">
+        <v>0.4</v>
+      </c>
+      <c r="F18">
+        <v>0.4</v>
+      </c>
+      <c r="G18">
+        <v>0.4</v>
+      </c>
+      <c r="H18">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="C19">
+        <v>0.6</v>
+      </c>
+      <c r="D19">
+        <v>0.6</v>
+      </c>
+      <c r="E19">
+        <v>0.6</v>
+      </c>
+      <c r="F19">
+        <v>0.6</v>
+      </c>
+      <c r="G19">
+        <v>0.6</v>
+      </c>
+      <c r="H19">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="C20">
+        <v>0.8</v>
+      </c>
+      <c r="D20">
+        <v>0.8</v>
+      </c>
+      <c r="E20">
+        <v>0.8</v>
+      </c>
+      <c r="F20">
+        <v>0.8</v>
+      </c>
+      <c r="G20">
+        <v>0.8</v>
+      </c>
+      <c r="H20">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>0.66</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="C22">
+        <v>1.2</v>
+      </c>
+      <c r="D22">
+        <v>1.2</v>
+      </c>
+      <c r="E22">
+        <v>1.2</v>
+      </c>
+      <c r="F22">
+        <v>1.2</v>
+      </c>
+      <c r="G22">
+        <v>1.2</v>
+      </c>
+      <c r="H22">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="C23">
+        <v>1.2</v>
+      </c>
+      <c r="D23">
+        <v>1.2</v>
+      </c>
+      <c r="E23">
+        <v>1.2</v>
+      </c>
+      <c r="F23">
+        <v>1.2</v>
+      </c>
+      <c r="G23">
+        <v>1.2</v>
+      </c>
+      <c r="H23">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="C24">
+        <v>0.6</v>
+      </c>
+      <c r="D24">
+        <v>0.6</v>
+      </c>
+      <c r="E24">
+        <v>0.6</v>
+      </c>
+      <c r="F24">
+        <v>0.6</v>
+      </c>
+      <c r="G24">
+        <v>0.6</v>
+      </c>
+      <c r="H24">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>0.33</v>
+      </c>
+      <c r="C25">
+        <v>0.5</v>
+      </c>
+      <c r="D25">
+        <v>0.5</v>
+      </c>
+      <c r="E25">
+        <v>0.5</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0.5</v>
+      </c>
+      <c r="H25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="C26">
+        <v>0.4</v>
+      </c>
+      <c r="D26">
+        <v>0.4</v>
+      </c>
+      <c r="E26">
+        <v>0.4</v>
+      </c>
+      <c r="F26">
+        <v>0.4</v>
+      </c>
+      <c r="G26">
+        <v>0.4</v>
+      </c>
+      <c r="H26">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="C27">
+        <v>0.3</v>
+      </c>
+      <c r="D27">
+        <v>0.3</v>
+      </c>
+      <c r="E27">
+        <v>0.3</v>
+      </c>
+      <c r="F27">
+        <v>0.3</v>
+      </c>
+      <c r="G27">
+        <v>0.3</v>
+      </c>
+      <c r="H27">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="C28">
+        <v>0.2</v>
+      </c>
+      <c r="D28">
+        <v>0.2</v>
+      </c>
+      <c r="E28">
+        <v>0.2</v>
+      </c>
+      <c r="F28">
+        <v>0.2</v>
+      </c>
+      <c r="G28">
+        <v>0.2</v>
+      </c>
+      <c r="H28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="C29">
+        <v>0.1</v>
+      </c>
+      <c r="D29">
+        <v>0.1</v>
+      </c>
+      <c r="E29">
+        <v>0.1</v>
+      </c>
+      <c r="F29">
+        <v>0.1</v>
+      </c>
+      <c r="G29">
+        <v>0.1</v>
+      </c>
+      <c r="H29">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>0</v>
       </c>
     </row>
